--- a/uploads/data3.xlsx
+++ b/uploads/data3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Desktop\collegeBloc Mid sem files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D66C24E-47CC-47D8-B56D-0387A719FE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC2D64-01EF-424A-9729-16F8BE7B24DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="1950" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="H2" s="2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="K2" s="2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="N2" s="2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>22</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="Q2" s="2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>23</v>
@@ -745,7 +745,7 @@
       </c>
       <c r="T2" s="2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>24</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="W2" s="2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>25</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="Z2" s="2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>26</v>
@@ -775,7 +775,7 @@
       </c>
       <c r="AC2" s="2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>27</v>
@@ -785,7 +785,7 @@
       </c>
       <c r="AF2" s="2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>28</v>
@@ -795,10 +795,10 @@
       </c>
       <c r="AI2" s="2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
